--- a/mosol4.xlsx
+++ b/mosol4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\11111\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83CC8A8D-0FFD-475A-A2E3-89EDCBCBD4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792DDE47-AD35-4392-9EC8-BED77D3CC56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>H1.</t>
   </si>
@@ -136,122 +136,128 @@
     <t>H24.</t>
   </si>
   <si>
-    <t>NRO item</t>
-  </si>
-  <si>
-    <t>tratamiento especial</t>
-  </si>
-  <si>
-    <t>subpartida</t>
-  </si>
-  <si>
-    <t>cod complemento</t>
-  </si>
-  <si>
-    <t>cod sumplementario</t>
-  </si>
-  <si>
-    <t>undiad fisica</t>
-  </si>
-  <si>
-    <t>cantidad fisica</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>nombre mercancia</t>
-  </si>
-  <si>
-    <t>marca comercial</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
-    <t>clase</t>
-  </si>
-  <si>
-    <t>modelo</t>
-  </si>
-  <si>
-    <t>cualitativo 1</t>
-  </si>
-  <si>
-    <t>composicion</t>
-  </si>
-  <si>
-    <t>forma presentacion</t>
-  </si>
-  <si>
-    <t>material</t>
-  </si>
-  <si>
-    <t>uso</t>
-  </si>
-  <si>
-    <t>otras caracteristicas</t>
-  </si>
-  <si>
-    <t>anio de modelo</t>
-  </si>
-  <si>
-    <t>anio de fabricacion</t>
-  </si>
-  <si>
-    <t>unidad</t>
-  </si>
-  <si>
-    <t>cantidad</t>
-  </si>
-  <si>
-    <t>precio</t>
-  </si>
-  <si>
-    <t>pais</t>
-  </si>
-  <si>
-    <t>acuerdo</t>
-  </si>
-  <si>
-    <t>marca</t>
-  </si>
-  <si>
-    <t>relacion item</t>
-  </si>
-  <si>
-    <t>peso neto</t>
-  </si>
-  <si>
-    <t>estado mercancia</t>
-  </si>
-  <si>
-    <t>resolusion</t>
-  </si>
-  <si>
-    <t>codigo</t>
-  </si>
-  <si>
-    <t>declaracion</t>
-  </si>
-  <si>
-    <t>regimen</t>
-  </si>
-  <si>
-    <t>precedente</t>
-  </si>
-  <si>
     <t>DIM</t>
   </si>
   <si>
     <t>A1.</t>
+  </si>
+  <si>
+    <t>Nro. Item por cada DIM</t>
+  </si>
+  <si>
+    <t>H2. Tratamiento Especial</t>
+  </si>
+  <si>
+    <t>H3. Subpartida arancelaria</t>
+  </si>
+  <si>
+    <t>H4. Cod. Complementario</t>
+  </si>
+  <si>
+    <t>H5. Cod. Sumplementario</t>
+  </si>
+  <si>
+    <t>H6. Unidad fisica</t>
+  </si>
+  <si>
+    <t>H7. Cantidad fisica</t>
+  </si>
+  <si>
+    <t>H8.1 Nombre Mercancia</t>
+  </si>
+  <si>
+    <t>H8.2 Especifique Nombre Mercancia</t>
+  </si>
+  <si>
+    <t>H8.3 Marca comercial</t>
+  </si>
+  <si>
+    <t>H8.4 Tipo</t>
+  </si>
+  <si>
+    <t>H8.5 Clase</t>
+  </si>
+  <si>
+    <t>H8.6 Clase</t>
+  </si>
+  <si>
+    <t>H8.7 Cualitativo 1</t>
+  </si>
+  <si>
+    <t>H8.8 Composicion</t>
+  </si>
+  <si>
+    <t>H8.9 Forma presentacion</t>
+  </si>
+  <si>
+    <t>H8.10 Material</t>
+  </si>
+  <si>
+    <t>H8.11 Uso</t>
+  </si>
+  <si>
+    <t>H8.12 Otras caracteristicas</t>
+  </si>
+  <si>
+    <t>H8.13 Año Modelo</t>
+  </si>
+  <si>
+    <t>H8.14 Año de Fabricacion</t>
+  </si>
+  <si>
+    <t>H9. Unidad Comercial</t>
+  </si>
+  <si>
+    <t>H10. Cantidad Comercial</t>
+  </si>
+  <si>
+    <t>H11. Precio unitario (USD)</t>
+  </si>
+  <si>
+    <t>H12. Pais de origen</t>
+  </si>
+  <si>
+    <t>H13. Acuerdo comercial</t>
+  </si>
+  <si>
+    <t>H14. Tipo de embalaje</t>
+  </si>
+  <si>
+    <t>H15. Marcas en bultos(s)</t>
+  </si>
+  <si>
+    <t>H16. Relacion item-N` de bultos(s)</t>
+  </si>
+  <si>
+    <t>H17. Peso Neto (Kg)</t>
+  </si>
+  <si>
+    <t>H18. Estado de mercancia</t>
+  </si>
+  <si>
+    <t>H19. Resolución RITEX</t>
+  </si>
+  <si>
+    <t>H20. Código RITEX</t>
+  </si>
+  <si>
+    <t>H21. Cantidad RITEX</t>
+  </si>
+  <si>
+    <t>H22. Declaración precedente</t>
+  </si>
+  <si>
+    <t>H23. Mod. régimen precedente</t>
+  </si>
+  <si>
+    <t>H24. Ítem precedente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -271,13 +277,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -336,21 +335,24 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -789,281 +791,283 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="74" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="77.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="145.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" customWidth="1"/>
-    <col min="20" max="20" width="74.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.28515625" customWidth="1"/>
-    <col min="34" max="35" width="8.85546875" customWidth="1"/>
-    <col min="36" max="36" width="14" customWidth="1"/>
-    <col min="37" max="37" width="8.85546875" customWidth="1"/>
-    <col min="38" max="38" width="14.42578125" customWidth="1"/>
-    <col min="39" max="178" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="49" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="74" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="77.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="55.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="145.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="74.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" style="5" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="37.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" style="5" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" style="5" customWidth="1"/>
+    <col min="26" max="26" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="43.5703125" style="5" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="5" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="5" customWidth="1"/>
+    <col min="31" max="31" width="11.140625" style="5" customWidth="1"/>
+    <col min="32" max="32" width="11.85546875" style="5" customWidth="1"/>
+    <col min="33" max="33" width="12.28515625" style="5" customWidth="1"/>
+    <col min="34" max="35" width="8.85546875" style="5" customWidth="1"/>
+    <col min="36" max="36" width="14" style="5" customWidth="1"/>
+    <col min="37" max="37" width="12" style="5" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" style="5" customWidth="1"/>
+    <col min="39" max="178" width="8.85546875" style="5" customWidth="1"/>
+    <col min="179" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:38" s="3" customFormat="1" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" s="3" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>71</v>
+      <c r="AK2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
